--- a/data.xlsx
+++ b/data.xlsx
@@ -717,7 +717,6 @@
           <t>Non</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>À la carte</t>
@@ -783,10 +782,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -866,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,6 +1305,61 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-16 12:31:15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mD2334</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>H1 ISALO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RANOHIRA</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Standard / Double</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Moyenne saison</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Ariary</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEMANDE_CLIENT" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COTATION_H" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFOS_CLIENTS" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,13 +454,28 @@
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="19" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="13" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="11" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -847,6 +863,240 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>Circuit aventure</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16/02/2026 20:38</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FG004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>innocente</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+261322208765</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>tsiky@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôtel 4*</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Double/twin</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>À la carte</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Circuits aventure</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Groupe</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tsiky</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>24/02/2026</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>27/02/2026</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3 jours</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>+261322208765</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17/02/2026 10:31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GH56</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dollard</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+261334555667</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>test@Hotmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hôtel 4*</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Double/twin</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>À la carte</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Circuit Tourisme Solidaire</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Groupe</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>rabe</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2 jours</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>+261334555667</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1561,6 @@
           <t>2026-02-16 12:31:15</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>mD2334</t>
@@ -1359,6 +1608,481 @@
           <t>Ariary</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Réf. Client</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Numéro Dossier</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type Client</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Date Arrivée</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date Départ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Durée Séjour</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Participants</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre Adultes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Enfants 2-12</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bébés 0-2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Téléphone</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Téléphone WhatsApp</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Période</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Restauration</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Hébergement</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Chambre</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Enfant</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Âge Enfant</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Forfait</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Circuit</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Type Circuit</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Ville Départ</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Ville Arrivée</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Type Hôtel Arrivée</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SGL</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>DBL</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>TWN</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>TPL</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>FML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16/02/2026 20:38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FG004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Groupe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tsiky</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>innocente</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24/02/2026</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>27/02/2026</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3 jours</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+261322208765</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>+261322208765</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>tsiky@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Hôtel 4*</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Double/twin</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>À la carte</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Circuits aventure</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Circuits aventure</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>FIANARANTSOA</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Antananarivo</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>5*</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17/02/2026 10:31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GH56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123G</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Groupe</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rabe</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>dollard</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18/02/2026</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2 jours</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+261334555667</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>+261334555667</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>test@Hotmail.com</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Hôtel 4*</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Double/twin</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>À la carte</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Circuit Tourisme Solidaire</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Circuit Tourisme Solidaire</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Antananarivo</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>RANOMAFANA, FIANARANTSOA</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>4*</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1111,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,6 +1609,115 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-17 16:42:30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GH56</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AU BOIS VERT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antananarivo</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Standard / Single</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Ariary</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-18 14:14:46</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FG004</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ATMO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Antananarivo</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Standard / Double</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Demi-pension</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Basse saison</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Ariary</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2043,7 +2152,6 @@
           <t>Non</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>À la carte</t>
@@ -2074,15 +2182,11 @@
           <t>4*</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
